--- a/uploads/students.xlsx
+++ b/uploads/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Full Name</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ry</t>
   </si>
   <si>
     <t xml:space="preserve">John Doe</t>
@@ -161,11 +164,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,7 +367,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3046875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -388,89 +391,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="3" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="3" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
